--- a/data/outputs/management_altmetric/40.xlsx
+++ b/data/outputs/management_altmetric/40.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE105"/>
+  <dimension ref="A1:CF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1019,6 +1024,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1260,6 +1268,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1505,6 +1516,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1758,6 +1772,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2015,6 +2032,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2256,6 +2276,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2493,6 +2516,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2734,6 +2760,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2993,6 +3022,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3244,6 +3276,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,6 +3514,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3724,6 +3762,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3977,6 +4018,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4228,6 +4272,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4471,6 +4518,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4710,6 +4760,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4945,6 +4998,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5188,6 +5244,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5429,6 +5488,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5666,6 +5728,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5905,6 +5970,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>5.65</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6154,6 +6222,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6409,6 +6480,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6654,6 +6728,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6905,6 +6982,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7154,6 +7234,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7407,6 +7490,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7654,6 +7740,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7895,6 +7984,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8144,6 +8236,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8397,6 +8492,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8646,6 +8744,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8887,6 +8988,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9128,6 +9232,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9369,6 +9476,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9624,6 +9734,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9865,6 +9978,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10118,6 +10234,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10363,6 +10482,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10608,6 +10730,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10851,6 +10976,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11082,6 +11210,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11335,6 +11466,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11584,6 +11718,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11825,6 +11962,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12078,6 +12218,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12315,6 +12458,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12564,6 +12710,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12813,6 +12962,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13068,6 +13220,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13313,6 +13468,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13562,6 +13720,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13809,6 +13970,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14058,6 +14222,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14305,6 +14472,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14554,6 +14724,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14803,6 +14976,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15052,6 +15228,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15297,6 +15476,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15538,6 +15720,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15779,6 +15964,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16026,6 +16214,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16267,6 +16458,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16504,6 +16698,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16741,6 +16938,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16990,6 +17190,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17231,6 +17434,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17472,6 +17678,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17715,6 +17924,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17956,6 +18168,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18193,6 +18408,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18434,6 +18652,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18681,6 +18902,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18926,6 +19150,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19167,6 +19394,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19408,6 +19638,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19647,6 +19880,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19892,6 +20128,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20133,6 +20372,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20382,6 +20624,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20631,6 +20876,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20868,6 +21116,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21109,6 +21360,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21354,6 +21608,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21609,6 +21866,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21850,6 +22110,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22095,6 +22358,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22346,6 +22612,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22583,6 +22852,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22824,6 +23096,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23063,6 +23338,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23304,6 +23582,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23553,6 +23834,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23790,6 +24074,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24033,6 +24320,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24276,6 +24566,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24523,6 +24816,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24766,6 +25062,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25007,6 +25306,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25260,6 +25562,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25505,6 +25810,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25754,6 +26062,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -25995,6 +26306,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26240,6 +26554,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
